--- a/JupyterNotebooks/AveragedIntensites/RGossF-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/RGossF-HW15.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="RGossF-HW15.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="RGossF" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -949,7 +949,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9862841412949088</v>
+        <v>0.9862841412949093</v>
       </c>
       <c r="D13">
         <v>0.9987428813913282</v>
@@ -958,7 +958,7 @@
         <v>0.990868888415937</v>
       </c>
       <c r="F13">
-        <v>0.9862841412949088</v>
+        <v>0.9862841412949093</v>
       </c>
       <c r="G13">
         <v>0.9907493041183262</v>
@@ -976,10 +976,10 @@
         <v>0.9948058849036325</v>
       </c>
       <c r="L13">
-        <v>0.9905450130992708</v>
+        <v>0.990545013099271</v>
       </c>
       <c r="M13">
-        <v>0.9933429725464396</v>
+        <v>0.9933429725464397</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1062,6 +1062,47 @@
       </c>
       <c r="M15">
         <v>1.011326905916646</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.061031675377856</v>
+      </c>
+      <c r="D16">
+        <v>1.233246932143259</v>
+      </c>
+      <c r="E16">
+        <v>1.000829744036772</v>
+      </c>
+      <c r="F16">
+        <v>1.061031675377856</v>
+      </c>
+      <c r="G16">
+        <v>0.8675645298150684</v>
+      </c>
+      <c r="H16">
+        <v>1.451569371944928</v>
+      </c>
+      <c r="I16">
+        <v>0.962324404813809</v>
+      </c>
+      <c r="J16">
+        <v>1.233246932143259</v>
+      </c>
+      <c r="K16">
+        <v>1.117038338090016</v>
+      </c>
+      <c r="L16">
+        <v>1.089035006733936</v>
+      </c>
+      <c r="M16">
+        <v>1.096094443021949</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/RGossF-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/RGossF-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.061031675377856</v>

--- a/JupyterNotebooks/AveragedIntensites/RGossF-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/RGossF-HW15.xlsx
@@ -952,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9862841412949093</v>
+        <v>0.9862841412949088</v>
       </c>
       <c r="D13">
         <v>0.9987428813913282</v>
@@ -961,7 +961,7 @@
         <v>0.990868888415937</v>
       </c>
       <c r="F13">
-        <v>0.9862841412949093</v>
+        <v>0.9862841412949088</v>
       </c>
       <c r="G13">
         <v>0.9907493041183262</v>
@@ -979,10 +979,10 @@
         <v>0.9948058849036325</v>
       </c>
       <c r="L13">
-        <v>0.990545013099271</v>
+        <v>0.9905450130992708</v>
       </c>
       <c r="M13">
-        <v>0.9933429725464397</v>
+        <v>0.9933429725464396</v>
       </c>
     </row>
     <row r="14" spans="1:13">

--- a/JupyterNotebooks/AveragedIntensites/RGossF-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/RGossF-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>2.283984000000002</v>
+        <v>1.061031675377856</v>
       </c>
       <c r="D10">
-        <v>0.02368399999999932</v>
+        <v>1.233246932143259</v>
       </c>
       <c r="E10">
-        <v>0.9084639999999992</v>
+        <v>1.000829744036772</v>
       </c>
       <c r="F10">
-        <v>2.283984000000002</v>
+        <v>1.061031675377856</v>
       </c>
       <c r="G10">
-        <v>0.3111519999999989</v>
+        <v>0.8675645298150684</v>
       </c>
       <c r="H10">
-        <v>1.408540000000001</v>
+        <v>1.451569371944928</v>
       </c>
       <c r="I10">
-        <v>1.113191999999998</v>
+        <v>0.962324404813809</v>
       </c>
       <c r="J10">
-        <v>0.02368399999999932</v>
+        <v>1.233246932143259</v>
       </c>
       <c r="K10">
-        <v>0.4660739999999993</v>
+        <v>1.117038338090016</v>
       </c>
       <c r="L10">
-        <v>1.375029000000001</v>
+        <v>1.089035006733936</v>
       </c>
       <c r="M10">
-        <v>1.008169333333333</v>
+        <v>1.096094443021949</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>3.435012499999988</v>
+        <v>0.6835093538392826</v>
       </c>
       <c r="D11">
-        <v>0.01</v>
+        <v>1.270775534408722</v>
       </c>
       <c r="E11">
-        <v>0.45</v>
+        <v>1.15623494300233</v>
       </c>
       <c r="F11">
-        <v>3.435012499999988</v>
+        <v>0.6835093538392826</v>
       </c>
       <c r="G11">
-        <v>0.3886250000000002</v>
+        <v>0.8487452942885764</v>
       </c>
       <c r="H11">
-        <v>0.22</v>
+        <v>1.848710910479194</v>
       </c>
       <c r="I11">
-        <v>0.9836250000000027</v>
+        <v>0.9912362659532078</v>
       </c>
       <c r="J11">
-        <v>0.01</v>
+        <v>1.270775534408722</v>
       </c>
       <c r="K11">
-        <v>0.23</v>
+        <v>1.213505238705526</v>
       </c>
       <c r="L11">
-        <v>1.832506249999994</v>
+        <v>0.9485072962724043</v>
       </c>
       <c r="M11">
-        <v>0.9145437499999985</v>
+        <v>1.133202050328552</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>2.385723970457597</v>
+        <v>0.6844387052542044</v>
       </c>
       <c r="D12">
-        <v>0.4234165041152013</v>
+        <v>1.25634367426999</v>
       </c>
       <c r="E12">
-        <v>0.6843187093503985</v>
+        <v>1.159231955148341</v>
       </c>
       <c r="F12">
-        <v>2.385723970457597</v>
+        <v>0.6844387052542044</v>
       </c>
       <c r="G12">
-        <v>0.6454906476544017</v>
+        <v>0.8438655564722771</v>
       </c>
       <c r="H12">
-        <v>0.5585156812800049</v>
+        <v>1.85457730012915</v>
       </c>
       <c r="I12">
-        <v>0.997835114086404</v>
+        <v>0.9938762640849956</v>
       </c>
       <c r="J12">
-        <v>0.4234165041152013</v>
+        <v>1.25634367426999</v>
       </c>
       <c r="K12">
-        <v>0.5538676067327999</v>
+        <v>1.207787814709165</v>
       </c>
       <c r="L12">
-        <v>1.469795788595198</v>
+        <v>0.9461132599816849</v>
       </c>
       <c r="M12">
-        <v>0.9492167711573344</v>
+        <v>1.13205557589316</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9862841412949088</v>
+        <v>0.6828290851119831</v>
       </c>
       <c r="D13">
-        <v>0.9987428813913282</v>
+        <v>1.268264768497686</v>
       </c>
       <c r="E13">
-        <v>0.990868888415937</v>
+        <v>1.15716135833466</v>
       </c>
       <c r="F13">
-        <v>0.9862841412949088</v>
+        <v>0.6828290851119831</v>
       </c>
       <c r="G13">
-        <v>0.9907493041183262</v>
+        <v>0.8475327214295615</v>
       </c>
       <c r="H13">
-        <v>1.001139772509748</v>
+        <v>1.850873208256092</v>
       </c>
       <c r="I13">
-        <v>0.9922728475483893</v>
+        <v>0.9920919898878994</v>
       </c>
       <c r="J13">
-        <v>0.9987428813913282</v>
+        <v>1.268264768497686</v>
       </c>
       <c r="K13">
-        <v>0.9948058849036325</v>
+        <v>1.212713063416173</v>
       </c>
       <c r="L13">
-        <v>0.9905450130992708</v>
+        <v>0.9477710742640779</v>
       </c>
       <c r="M13">
-        <v>0.9933429725464396</v>
+        <v>1.133125521919647</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.068201957836057</v>
+        <v>2.283984000000002</v>
       </c>
       <c r="D14">
-        <v>0.9139794098522952</v>
+        <v>0.02368399999999932</v>
       </c>
       <c r="E14">
-        <v>0.9943948781468208</v>
+        <v>0.9084639999999992</v>
       </c>
       <c r="F14">
-        <v>1.068201957836057</v>
+        <v>2.283984000000002</v>
       </c>
       <c r="G14">
-        <v>0.9903156575817584</v>
+        <v>0.3111519999999989</v>
       </c>
       <c r="H14">
-        <v>0.841388336655014</v>
+        <v>1.408540000000001</v>
       </c>
       <c r="I14">
-        <v>0.9980923855235098</v>
+        <v>1.113191999999998</v>
       </c>
       <c r="J14">
-        <v>0.9139794098522952</v>
+        <v>0.02368399999999932</v>
       </c>
       <c r="K14">
-        <v>0.954187143999558</v>
+        <v>0.4660739999999993</v>
       </c>
       <c r="L14">
-        <v>1.011194550917807</v>
+        <v>1.375029000000001</v>
       </c>
       <c r="M14">
-        <v>0.9677287709325758</v>
+        <v>1.008169333333333</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9941038032747677</v>
+        <v>3.435012499999988</v>
       </c>
       <c r="D15">
-        <v>1.140738590472542</v>
+        <v>0.01</v>
       </c>
       <c r="E15">
-        <v>0.954947285193842</v>
+        <v>0.45</v>
       </c>
       <c r="F15">
-        <v>0.9941038032747677</v>
+        <v>3.435012499999988</v>
       </c>
       <c r="G15">
-        <v>1.040374737777881</v>
+        <v>0.3886250000000002</v>
       </c>
       <c r="H15">
-        <v>0.9737487568172937</v>
+        <v>0.22</v>
       </c>
       <c r="I15">
-        <v>0.9640482619635485</v>
+        <v>0.9836250000000027</v>
       </c>
       <c r="J15">
-        <v>1.140738590472542</v>
+        <v>0.01</v>
       </c>
       <c r="K15">
-        <v>1.047842937833192</v>
+        <v>0.23</v>
       </c>
       <c r="L15">
-        <v>1.02097337055398</v>
+        <v>1.832506249999994</v>
       </c>
       <c r="M15">
-        <v>1.011326905916646</v>
+        <v>0.9145437499999985</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.061031675377856</v>
+        <v>2.385723970457597</v>
       </c>
       <c r="D16">
-        <v>1.233246932143259</v>
+        <v>0.4234165041152013</v>
       </c>
       <c r="E16">
-        <v>1.000829744036772</v>
+        <v>0.6843187093503985</v>
       </c>
       <c r="F16">
-        <v>1.061031675377856</v>
+        <v>2.385723970457597</v>
       </c>
       <c r="G16">
-        <v>0.8675645298150684</v>
+        <v>0.6454906476544017</v>
       </c>
       <c r="H16">
-        <v>1.451569371944928</v>
+        <v>0.5585156812800049</v>
       </c>
       <c r="I16">
-        <v>0.962324404813809</v>
+        <v>0.997835114086404</v>
       </c>
       <c r="J16">
-        <v>1.233246932143259</v>
+        <v>0.4234165041152013</v>
       </c>
       <c r="K16">
-        <v>1.117038338090016</v>
+        <v>0.5538676067327999</v>
       </c>
       <c r="L16">
-        <v>1.089035006733936</v>
+        <v>1.469795788595198</v>
       </c>
       <c r="M16">
-        <v>1.096094443021949</v>
+        <v>0.9492167711573344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9862841412949093</v>
+      </c>
+      <c r="D17">
+        <v>0.9987428813913282</v>
+      </c>
+      <c r="E17">
+        <v>0.990868888415937</v>
+      </c>
+      <c r="F17">
+        <v>0.9862841412949093</v>
+      </c>
+      <c r="G17">
+        <v>0.9907493041183262</v>
+      </c>
+      <c r="H17">
+        <v>1.001139772509748</v>
+      </c>
+      <c r="I17">
+        <v>0.9922728475483893</v>
+      </c>
+      <c r="J17">
+        <v>0.9987428813913282</v>
+      </c>
+      <c r="K17">
+        <v>0.9948058849036325</v>
+      </c>
+      <c r="L17">
+        <v>0.990545013099271</v>
+      </c>
+      <c r="M17">
+        <v>0.9933429725464397</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.068201957836057</v>
+      </c>
+      <c r="D18">
+        <v>0.9139794098522952</v>
+      </c>
+      <c r="E18">
+        <v>0.9943948781468208</v>
+      </c>
+      <c r="F18">
+        <v>1.068201957836057</v>
+      </c>
+      <c r="G18">
+        <v>0.9903156575817584</v>
+      </c>
+      <c r="H18">
+        <v>0.841388336655014</v>
+      </c>
+      <c r="I18">
+        <v>0.9980923855235098</v>
+      </c>
+      <c r="J18">
+        <v>0.9139794098522952</v>
+      </c>
+      <c r="K18">
+        <v>0.954187143999558</v>
+      </c>
+      <c r="L18">
+        <v>1.011194550917807</v>
+      </c>
+      <c r="M18">
+        <v>0.9677287709325758</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9941038032747677</v>
+      </c>
+      <c r="D19">
+        <v>1.140738590472542</v>
+      </c>
+      <c r="E19">
+        <v>0.954947285193842</v>
+      </c>
+      <c r="F19">
+        <v>0.9941038032747677</v>
+      </c>
+      <c r="G19">
+        <v>1.040374737777881</v>
+      </c>
+      <c r="H19">
+        <v>0.9737487568172937</v>
+      </c>
+      <c r="I19">
+        <v>0.9640482619635485</v>
+      </c>
+      <c r="J19">
+        <v>1.140738590472542</v>
+      </c>
+      <c r="K19">
+        <v>1.047842937833192</v>
+      </c>
+      <c r="L19">
+        <v>1.02097337055398</v>
+      </c>
+      <c r="M19">
+        <v>1.011326905916646</v>
       </c>
     </row>
   </sheetData>
